--- a/biology/Botanique/Satureja_montana/Satureja_montana.xlsx
+++ b/biology/Botanique/Satureja_montana/Satureja_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sarriette des montagnes Écouter, sariette d'hiver ou sarriette vivace Écouter (Satureja montana) est un sous-arbrisseau de la famille des Lamiaceae. C'est une plante condimentaire aromatique et médicinale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur : 15 - 40 cm, à tiges ascendantes ou dressées
 feuilles coriaces, lancéolées-linéaires, très aiguës, ciliées aux bords
@@ -519,8 +533,43 @@
 calice en tube, à dents un peu inégales, égalant à peine le tube
 corolle très saillante, à tube long de 6-7 mm
 D'après la flore de l'Abbé H. Coste
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Satureja_montana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Satureja_montana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, rose
 Période de floraison : juillet - septembre
 Inflorescence : glomérule
@@ -539,37 +588,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Satureja_montana</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Satureja_montana</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa zone de rusticité se situe entre 6 et 8[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -591,12 +609,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Composition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principal constituant est p-thymol[2].
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa zone de rusticité se situe entre 6 et 8.
 </t>
         </is>
       </c>
@@ -622,16 +642,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal constituant est p-thymol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Satureja_montana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Satureja_montana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuisine
-La sarriette des montagnes était utilisée comme conservateur des aliments.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cuisine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sarriette des montagnes était utilisée comme conservateur des aliments.
 Elle s'utilise comme aromates dans les soupes, sauces, grillades, salade; 
-Médecine
-Elle a pour qualité d'être antibiotique, antiseptique, stimulante[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Satureja_montana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Satureja_montana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a pour qualité d'être antibiotique, antiseptique, stimulante,.
 </t>
         </is>
       </c>
